--- a/Logging_GAVLEBORGS_LAN/Logging_HOFORS/artfynd/A 33491-2023.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Logging_HOFORS/artfynd/A 33491-2023.xlsx
@@ -683,7 +683,7 @@
         <v>111158312</v>
       </c>
       <c r="B2" t="n">
-        <v>95519</v>
+        <v>95532</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
